--- a/samples/configs/FlatBuffer测试(fbs_test).xlsx
+++ b/samples/configs/FlatBuffer测试(fbs_test).xlsx
@@ -10,7 +10,7 @@
     <sheet name="(fbs_test)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="test" localSheetId="0">'(fbs_test)'!$A$1:$M$6</definedName>
+    <definedName name="test" localSheetId="0">'(fbs_test)'!$A$1:$M$7</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -29,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>主键</t>
   </si>
   <si>
-    <t>主键2</t>
-  </si>
-  <si>
     <t>整形</t>
   </si>
   <si>
@@ -273,6 +270,18 @@
   </si>
   <si>
     <t>test_bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -733,110 +742,108 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -855,116 +862,116 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>2</v>
+      <c r="A6" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -976,40 +983,93 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="M6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>22</v>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.9999899999999999</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/samples/configs/FlatBuffer测试(fbs_test).xlsx
+++ b/samples/configs/FlatBuffer测试(fbs_test).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>主键</t>
   </si>
@@ -121,38 +121,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_list2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>列表3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_list3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>list(list(list(int(8))))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_list1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_list1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>元组2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_tuple1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tuple(tuple(int(16)))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,22 +145,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_tuple3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_tuple3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_tuple1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_tuple2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>列表混合</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -189,10 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_list_mix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(1000,2000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -221,14 +181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_map1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_map2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{a:{a:1,b:2},b:{a:1}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -241,38 +193,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_map3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{a1:{b1:{c1:1,d1:1},b2:{c2:2,d2:2}},a2:{b1:{c1:1,d1:1},b2:{}}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_map_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_map_map_list_tuple</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>字符串</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -282,6 +206,18 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_raw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>any</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -706,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -730,19 +666,20 @@
     <col min="15" max="15" width="67.375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.875" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="43" style="4" customWidth="1"/>
-    <col min="18" max="18" width="21.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="10.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="11" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="4"/>
+    <col min="18" max="18" width="67.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.5" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -757,10 +694,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -769,10 +706,10 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -785,8 +722,11 @@
       <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -806,10 +746,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
@@ -818,19 +758,19 @@
         <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>19</v>
@@ -838,8 +778,11 @@
       <c r="Q2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="R2" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -859,116 +802,63 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>59</v>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>59</v>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -983,34 +873,34 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>20</v>
@@ -1018,10 +908,13 @@
       <c r="Q6" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="R6" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -1036,40 +929,43 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/samples/configs/FlatBuffer测试(fbs_test).xlsx
+++ b/samples/configs/FlatBuffer测试(fbs_test).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
   <si>
     <t>主键</t>
   </si>
@@ -121,18 +121,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>test_list2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>列表3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>test_list3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>list(list(list(int(8))))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>test_list1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_list1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>元组2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>test_tuple1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>tuple(tuple(int(16)))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,6 +165,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>test_tuple3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_tuple3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_tuple1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_tuple2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>列表混合</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -153,6 +189,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>test_list_mix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>(1000,2000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,6 +221,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>test_map1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_map2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{a:{a:1,b:2},b:{a:1}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -193,10 +241,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>test_map3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{a1:{b1:{c1:1,d1:1},b2:{c2:2,d2:2}},a2:{b1:{c1:1,d1:1},b2:{}}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>test_map_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_map_map_list_tuple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>字符串</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,19 +281,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_raw</t>
+    <t>任意类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>any</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_any</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -666,12 +746,11 @@
     <col min="15" max="15" width="67.375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.875" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="43" style="4" customWidth="1"/>
-    <col min="18" max="18" width="67.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="11.625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="10.5" style="4" customWidth="1"/>
-    <col min="22" max="22" width="11" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="4"/>
+    <col min="18" max="18" width="21.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="10.5" style="4" customWidth="1"/>
+    <col min="21" max="21" width="11" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
@@ -679,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -694,10 +773,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -706,10 +785,10 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -723,7 +802,7 @@
         <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -746,10 +825,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
@@ -758,19 +837,19 @@
         <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>19</v>
@@ -779,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -811,23 +890,53 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="R4" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -837,28 +946,58 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="R5" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -873,34 +1012,34 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>20</v>
@@ -909,12 +1048,12 @@
         <v>21</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>47</v>
+      <c r="A7" s="4">
+        <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -929,34 +1068,34 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>20</v>
@@ -965,7 +1104,119 @@
         <v>21</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.9999899999999999</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.9999899999999999</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
